--- a/bga_data_simulada_240320.xlsx
+++ b/bga_data_simulada_240320.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bucaramangagovco-my.sharepoint.com/personal/wagomez_bucaramanga_gov_co/Documents/Archivos de chat de Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{16652CDC-ADB8-6740-8670-6054FDB1DA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC5A628C-75B0-7C42-81F5-D681127A9D23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8809346-BA19-5747-A895-D40967287919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{7FB20955-26A6-8648-B363-5AE13D74BDA4}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="3" xr2:uid="{7FB20955-26A6-8648-B363-5AE13D74BDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguridad y convivencia " sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,7 +645,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,7 +663,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -727,7 +726,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -910,7 +909,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -949,7 +948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601714640"/>
@@ -1028,7 +1027,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1067,7 +1066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601713008"/>
@@ -1125,7 +1124,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1139,7 +1138,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1177,7 +1176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1216,7 +1215,7 @@
             <c:numRef>
               <c:f>[2]Abastecimiento!$C$2:$G$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
@@ -1240,21 +1239,21 @@
             <c:numRef>
               <c:f>[2]Abastecimiento!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>2453</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2710</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>1725.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>2454.8000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>607.29999999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,14 +1277,14 @@
         <c:axId val="602829200"/>
         <c:axId val="600138608"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="602829200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1319,16 +1318,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="600138608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="600138608"/>
         <c:scaling>
@@ -1401,7 +1399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1433,7 +1431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="602829200"/>
@@ -1481,7 +1479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2858,6 +2856,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Abastecimiento"/>
+      <sheetName val="Hoja2"/>
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
@@ -2901,51 +2900,14 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Abastecimiento"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>43908</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>2453</v>
-          </cell>
-          <cell r="D3">
-            <v>2710</v>
-          </cell>
-          <cell r="E3">
-            <v>1725.2</v>
-          </cell>
-          <cell r="F3">
-            <v>2454.8000000000002</v>
-          </cell>
-          <cell r="G3">
-            <v>607.29999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3816,10 +3778,10 @@
   <dimension ref="B3:AQ15"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="47.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -3831,12 +3793,12 @@
     <col min="44" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:43">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:43">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -3964,7 +3926,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="6" spans="2:43">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -4092,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:43">
+    <row r="7" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:43">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -4348,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:43">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -4476,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:43">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -4604,7 +4566,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="12" spans="2:43">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -4732,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:43">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -4860,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:43">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4988,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:43">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -5125,11 +5087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC7BE8E-C57E-7E45-876E-F4F6722141D3}">
   <dimension ref="B2:AP100"/>
   <sheetViews>
-    <sheetView topLeftCell="R15" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19:AF23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -5138,7 +5100,7 @@
     <col min="33" max="42" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5263,7 +5225,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="3" spans="2:42">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
@@ -5388,7 +5350,7 @@
         <v>91908</v>
       </c>
     </row>
-    <row r="4" spans="2:42" ht="28" customHeight="1">
+    <row r="4" spans="2:42" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
@@ -5513,7 +5475,7 @@
         <v>67845</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="25" customHeight="1">
+    <row r="5" spans="2:42" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
@@ -5638,7 +5600,7 @@
         <v>0.35467609993367233</v>
       </c>
     </row>
-    <row r="6" spans="2:42">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5681,7 +5643,7 @@
       <c r="AO6" s="18"/>
       <c r="AP6" s="18"/>
     </row>
-    <row r="7" spans="2:42">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -5726,7 +5688,7 @@
       <c r="AO7" s="18"/>
       <c r="AP7" s="18"/>
     </row>
-    <row r="8" spans="2:42">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -5769,7 +5731,7 @@
       <c r="AO8" s="18"/>
       <c r="AP8" s="18"/>
     </row>
-    <row r="9" spans="2:42">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -5894,7 +5856,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="10" spans="2:42">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
@@ -6019,7 +5981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:42">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
@@ -6144,7 +6106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:42">
+    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -6187,7 +6149,7 @@
       <c r="AO12" s="18"/>
       <c r="AP12" s="18"/>
     </row>
-    <row r="13" spans="2:42">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -6312,7 +6274,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="14" spans="2:42">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
@@ -6437,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:42">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
@@ -6562,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:42">
+    <row r="16" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -6687,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:42">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -6730,7 +6692,7 @@
       <c r="AO17" s="18"/>
       <c r="AP17" s="18"/>
     </row>
-    <row r="18" spans="2:42">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
@@ -6855,7 +6817,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="19" spans="2:42">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -6980,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
@@ -7105,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:42">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -7230,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:42">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
@@ -7355,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:42">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
@@ -7480,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:42">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -7523,7 +7485,7 @@
       <c r="AO24" s="18"/>
       <c r="AP24" s="18"/>
     </row>
-    <row r="25" spans="2:42">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
@@ -7648,7 +7610,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="26" spans="2:42">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
@@ -7773,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:42">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
@@ -7898,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:42">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
@@ -8023,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:42">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
@@ -8148,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:42">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>33</v>
       </c>
@@ -8273,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:42">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -8316,7 +8278,7 @@
       <c r="AO31" s="18"/>
       <c r="AP31" s="18"/>
     </row>
-    <row r="32" spans="2:42">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
@@ -8441,7 +8403,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="33" spans="2:42">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>17</v>
       </c>
@@ -8566,7 +8528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:42">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>18</v>
       </c>
@@ -8691,7 +8653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:42">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -8734,7 +8696,7 @@
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
     </row>
-    <row r="36" spans="2:42">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -8777,7 +8739,7 @@
       <c r="AO36" s="18"/>
       <c r="AP36" s="18"/>
     </row>
-    <row r="37" spans="2:42">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -8838,7 +8800,7 @@
       <c r="AO37" s="18"/>
       <c r="AP37" s="18"/>
     </row>
-    <row r="38" spans="2:42">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -8897,7 +8859,7 @@
       <c r="AO38" s="18"/>
       <c r="AP38" s="18"/>
     </row>
-    <row r="39" spans="2:42">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -8956,7 +8918,7 @@
       <c r="AO39" s="18"/>
       <c r="AP39" s="18"/>
     </row>
-    <row r="40" spans="2:42">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -8999,7 +8961,7 @@
       <c r="AO40" s="18"/>
       <c r="AP40" s="18"/>
     </row>
-    <row r="41" spans="2:42">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -9066,7 +9028,7 @@
       <c r="AO41" s="18"/>
       <c r="AP41" s="18"/>
     </row>
-    <row r="42" spans="2:42">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -9109,7 +9071,7 @@
       <c r="AO42" s="18"/>
       <c r="AP42" s="18"/>
     </row>
-    <row r="43" spans="2:42">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -9152,7 +9114,7 @@
       <c r="AO43" s="18"/>
       <c r="AP43" s="18"/>
     </row>
-    <row r="44" spans="2:42">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -9195,7 +9157,7 @@
       <c r="AO44" s="18"/>
       <c r="AP44" s="18"/>
     </row>
-    <row r="45" spans="2:42">
+    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -9238,7 +9200,7 @@
       <c r="AO45" s="18"/>
       <c r="AP45" s="18"/>
     </row>
-    <row r="46" spans="2:42">
+    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -9281,7 +9243,7 @@
       <c r="AO46" s="18"/>
       <c r="AP46" s="18"/>
     </row>
-    <row r="47" spans="2:42">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -9324,7 +9286,7 @@
       <c r="AO47" s="18"/>
       <c r="AP47" s="18"/>
     </row>
-    <row r="48" spans="2:42">
+    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -9367,7 +9329,7 @@
       <c r="AO48" s="18"/>
       <c r="AP48" s="18"/>
     </row>
-    <row r="49" spans="2:42">
+    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -9410,7 +9372,7 @@
       <c r="AO49" s="18"/>
       <c r="AP49" s="18"/>
     </row>
-    <row r="50" spans="2:42">
+    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -9453,7 +9415,7 @@
       <c r="AO50" s="18"/>
       <c r="AP50" s="18"/>
     </row>
-    <row r="51" spans="2:42">
+    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -9496,7 +9458,7 @@
       <c r="AO51" s="18"/>
       <c r="AP51" s="18"/>
     </row>
-    <row r="52" spans="2:42">
+    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -9539,7 +9501,7 @@
       <c r="AO52" s="18"/>
       <c r="AP52" s="18"/>
     </row>
-    <row r="53" spans="2:42">
+    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -9582,7 +9544,7 @@
       <c r="AO53" s="18"/>
       <c r="AP53" s="18"/>
     </row>
-    <row r="54" spans="2:42">
+    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -9625,7 +9587,7 @@
       <c r="AO54" s="18"/>
       <c r="AP54" s="18"/>
     </row>
-    <row r="55" spans="2:42">
+    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -9668,7 +9630,7 @@
       <c r="AO55" s="18"/>
       <c r="AP55" s="18"/>
     </row>
-    <row r="56" spans="2:42">
+    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -9711,7 +9673,7 @@
       <c r="AO56" s="18"/>
       <c r="AP56" s="18"/>
     </row>
-    <row r="57" spans="2:42">
+    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -9754,7 +9716,7 @@
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
     </row>
-    <row r="58" spans="2:42">
+    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -9797,7 +9759,7 @@
       <c r="AO58" s="18"/>
       <c r="AP58" s="18"/>
     </row>
-    <row r="59" spans="2:42">
+    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -9840,7 +9802,7 @@
       <c r="AO59" s="18"/>
       <c r="AP59" s="18"/>
     </row>
-    <row r="60" spans="2:42">
+    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -9883,7 +9845,7 @@
       <c r="AO60" s="18"/>
       <c r="AP60" s="18"/>
     </row>
-    <row r="61" spans="2:42">
+    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -9926,7 +9888,7 @@
       <c r="AO61" s="18"/>
       <c r="AP61" s="18"/>
     </row>
-    <row r="62" spans="2:42">
+    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -9969,7 +9931,7 @@
       <c r="AO62" s="18"/>
       <c r="AP62" s="18"/>
     </row>
-    <row r="63" spans="2:42">
+    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -10012,7 +9974,7 @@
       <c r="AO63" s="18"/>
       <c r="AP63" s="18"/>
     </row>
-    <row r="64" spans="2:42">
+    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -10055,7 +10017,7 @@
       <c r="AO64" s="18"/>
       <c r="AP64" s="18"/>
     </row>
-    <row r="65" spans="2:42">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -10098,7 +10060,7 @@
       <c r="AO65" s="18"/>
       <c r="AP65" s="18"/>
     </row>
-    <row r="66" spans="2:42">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -10141,7 +10103,7 @@
       <c r="AO66" s="18"/>
       <c r="AP66" s="18"/>
     </row>
-    <row r="67" spans="2:42">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -10184,7 +10146,7 @@
       <c r="AO67" s="18"/>
       <c r="AP67" s="18"/>
     </row>
-    <row r="68" spans="2:42">
+    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -10227,7 +10189,7 @@
       <c r="AO68" s="18"/>
       <c r="AP68" s="18"/>
     </row>
-    <row r="69" spans="2:42">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -10270,7 +10232,7 @@
       <c r="AO69" s="18"/>
       <c r="AP69" s="18"/>
     </row>
-    <row r="70" spans="2:42">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -10313,7 +10275,7 @@
       <c r="AO70" s="18"/>
       <c r="AP70" s="18"/>
     </row>
-    <row r="71" spans="2:42">
+    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -10356,7 +10318,7 @@
       <c r="AO71" s="18"/>
       <c r="AP71" s="18"/>
     </row>
-    <row r="72" spans="2:42">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -10399,7 +10361,7 @@
       <c r="AO72" s="18"/>
       <c r="AP72" s="18"/>
     </row>
-    <row r="73" spans="2:42">
+    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -10442,7 +10404,7 @@
       <c r="AO73" s="18"/>
       <c r="AP73" s="18"/>
     </row>
-    <row r="74" spans="2:42">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -10485,7 +10447,7 @@
       <c r="AO74" s="18"/>
       <c r="AP74" s="18"/>
     </row>
-    <row r="75" spans="2:42">
+    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -10528,7 +10490,7 @@
       <c r="AO75" s="18"/>
       <c r="AP75" s="18"/>
     </row>
-    <row r="76" spans="2:42">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -10571,7 +10533,7 @@
       <c r="AO76" s="18"/>
       <c r="AP76" s="18"/>
     </row>
-    <row r="77" spans="2:42">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -10614,7 +10576,7 @@
       <c r="AO77" s="18"/>
       <c r="AP77" s="18"/>
     </row>
-    <row r="78" spans="2:42">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -10657,7 +10619,7 @@
       <c r="AO78" s="18"/>
       <c r="AP78" s="18"/>
     </row>
-    <row r="79" spans="2:42">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -10700,7 +10662,7 @@
       <c r="AO79" s="18"/>
       <c r="AP79" s="18"/>
     </row>
-    <row r="80" spans="2:42">
+    <row r="80" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -10743,7 +10705,7 @@
       <c r="AO80" s="18"/>
       <c r="AP80" s="18"/>
     </row>
-    <row r="81" spans="2:42">
+    <row r="81" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -10786,7 +10748,7 @@
       <c r="AO81" s="18"/>
       <c r="AP81" s="18"/>
     </row>
-    <row r="82" spans="2:42">
+    <row r="82" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -10829,7 +10791,7 @@
       <c r="AO82" s="18"/>
       <c r="AP82" s="18"/>
     </row>
-    <row r="83" spans="2:42">
+    <row r="83" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -10872,7 +10834,7 @@
       <c r="AO83" s="18"/>
       <c r="AP83" s="18"/>
     </row>
-    <row r="84" spans="2:42">
+    <row r="84" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -10915,7 +10877,7 @@
       <c r="AO84" s="18"/>
       <c r="AP84" s="18"/>
     </row>
-    <row r="85" spans="2:42">
+    <row r="85" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -10958,7 +10920,7 @@
       <c r="AO85" s="18"/>
       <c r="AP85" s="18"/>
     </row>
-    <row r="86" spans="2:42">
+    <row r="86" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -11001,7 +10963,7 @@
       <c r="AO86" s="18"/>
       <c r="AP86" s="18"/>
     </row>
-    <row r="87" spans="2:42">
+    <row r="87" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -11044,7 +11006,7 @@
       <c r="AO87" s="18"/>
       <c r="AP87" s="18"/>
     </row>
-    <row r="88" spans="2:42">
+    <row r="88" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -11087,7 +11049,7 @@
       <c r="AO88" s="18"/>
       <c r="AP88" s="18"/>
     </row>
-    <row r="89" spans="2:42">
+    <row r="89" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -11130,7 +11092,7 @@
       <c r="AO89" s="18"/>
       <c r="AP89" s="18"/>
     </row>
-    <row r="90" spans="2:42">
+    <row r="90" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
@@ -11173,7 +11135,7 @@
       <c r="AO90" s="18"/>
       <c r="AP90" s="18"/>
     </row>
-    <row r="91" spans="2:42">
+    <row r="91" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -11216,7 +11178,7 @@
       <c r="AO91" s="18"/>
       <c r="AP91" s="18"/>
     </row>
-    <row r="92" spans="2:42">
+    <row r="92" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -11259,7 +11221,7 @@
       <c r="AO92" s="18"/>
       <c r="AP92" s="18"/>
     </row>
-    <row r="93" spans="2:42">
+    <row r="93" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -11302,7 +11264,7 @@
       <c r="AO93" s="18"/>
       <c r="AP93" s="18"/>
     </row>
-    <row r="94" spans="2:42">
+    <row r="94" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
@@ -11345,7 +11307,7 @@
       <c r="AO94" s="18"/>
       <c r="AP94" s="18"/>
     </row>
-    <row r="95" spans="2:42">
+    <row r="95" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -11388,7 +11350,7 @@
       <c r="AO95" s="18"/>
       <c r="AP95" s="18"/>
     </row>
-    <row r="96" spans="2:42">
+    <row r="96" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -11431,7 +11393,7 @@
       <c r="AO96" s="18"/>
       <c r="AP96" s="18"/>
     </row>
-    <row r="97" spans="2:42">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
@@ -11474,7 +11436,7 @@
       <c r="AO97" s="18"/>
       <c r="AP97" s="18"/>
     </row>
-    <row r="98" spans="2:42">
+    <row r="98" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
@@ -11517,7 +11479,7 @@
       <c r="AO98" s="18"/>
       <c r="AP98" s="18"/>
     </row>
-    <row r="99" spans="2:42">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
@@ -11560,7 +11522,7 @@
       <c r="AO99" s="18"/>
       <c r="AP99" s="18"/>
     </row>
-    <row r="100" spans="2:42">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
@@ -11616,19 +11578,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4422C4E6-9EAE-4549-995A-4EDE1125F280}">
   <dimension ref="B2:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N32" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="33" width="7.5" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" customWidth="1"/>
-    <col min="35" max="39" width="7.5" customWidth="1"/>
+    <col min="3" max="39" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:39" ht="45">
+    <row r="2" spans="2:39" ht="45" x14ac:dyDescent="0.2">
       <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
@@ -11670,7 +11630,7 @@
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
     </row>
-    <row r="3" spans="2:39" ht="29">
+    <row r="3" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>35</v>
       </c>
@@ -11786,7 +11746,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="4" spans="2:39">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
@@ -11902,7 +11862,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="5" spans="2:39">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>37</v>
       </c>
@@ -12018,7 +11978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:39">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -12058,7 +12018,7 @@
       <c r="AL6" s="28"/>
       <c r="AM6" s="28"/>
     </row>
-    <row r="7" spans="2:39">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -12098,7 +12058,7 @@
       <c r="AL7" s="28"/>
       <c r="AM7" s="28"/>
     </row>
-    <row r="8" spans="2:39">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
         <v>38</v>
       </c>
@@ -12214,7 +12174,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="9" spans="2:39">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
         <v>39</v>
       </c>
@@ -12256,7 +12216,7 @@
       <c r="AL9" s="33"/>
       <c r="AM9" s="33"/>
     </row>
-    <row r="10" spans="2:39">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>40</v>
       </c>
@@ -12372,7 +12332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>41</v>
       </c>
@@ -12488,7 +12448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:39">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>42</v>
       </c>
@@ -12604,7 +12564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:39">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
         <v>43</v>
       </c>
@@ -12716,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:39">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>40</v>
       </c>
@@ -12832,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:39">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>41</v>
       </c>
@@ -12948,7 +12908,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:39">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>42</v>
       </c>
@@ -13064,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="37" t="s">
         <v>44</v>
       </c>
@@ -13176,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>40</v>
       </c>
@@ -13292,7 +13252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
@@ -13408,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>42</v>
       </c>
@@ -13524,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="35"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -13564,7 +13524,7 @@
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="35"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -13604,7 +13564,7 @@
       <c r="AL22" s="28"/>
       <c r="AM22" s="28"/>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
         <v>45</v>
       </c>
@@ -13720,7 +13680,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
@@ -13762,7 +13722,7 @@
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>47</v>
       </c>
@@ -13878,7 +13838,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>48</v>
       </c>
@@ -13994,7 +13954,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>49</v>
       </c>
@@ -14110,7 +14070,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="2:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>50</v>
       </c>
@@ -14226,7 +14186,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
         <v>51</v>
       </c>
@@ -14338,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="38" t="s">
         <v>47</v>
       </c>
@@ -14454,7 +14414,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>48</v>
       </c>
@@ -14570,7 +14530,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>49</v>
       </c>
@@ -14686,7 +14646,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="2:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
         <v>50</v>
       </c>
@@ -14802,7 +14762,7 @@
         <v>122256</v>
       </c>
     </row>
-    <row r="34" spans="2:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B34" s="37" t="s">
         <v>52</v>
       </c>
@@ -14914,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B35" s="38" t="s">
         <v>47</v>
       </c>
@@ -15030,7 +14990,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="2:39">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B36" s="38" t="s">
         <v>48</v>
       </c>
@@ -15146,7 +15106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B37" s="38" t="s">
         <v>49</v>
       </c>
@@ -15262,7 +15222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
         <v>50</v>
       </c>
@@ -15378,7 +15338,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="39" spans="2:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B39" s="37" t="s">
         <v>53</v>
       </c>
@@ -15490,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:39">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B40" s="38" t="s">
         <v>47</v>
       </c>
@@ -15606,7 +15566,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="41" spans="2:39">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>48</v>
       </c>
@@ -15722,7 +15682,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="2:39">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
         <v>49</v>
       </c>
@@ -15838,7 +15798,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="43" spans="2:39">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>50</v>
       </c>
@@ -15954,239 +15914,313 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="44" spans="2:39">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="32">
-        <v>283683</v>
-      </c>
-      <c r="D44" s="32">
-        <v>59144</v>
-      </c>
-      <c r="E44" s="32">
-        <v>265883</v>
-      </c>
-      <c r="F44" s="32">
-        <v>94450</v>
-      </c>
-      <c r="G44" s="32">
-        <v>195630</v>
-      </c>
-      <c r="H44" s="32">
-        <v>244095</v>
-      </c>
-      <c r="I44" s="32">
-        <v>249821</v>
-      </c>
-      <c r="J44" s="32">
-        <v>278565</v>
-      </c>
-      <c r="K44" s="32">
-        <v>110319</v>
-      </c>
-      <c r="L44" s="32">
-        <v>155446</v>
-      </c>
-      <c r="M44" s="32">
-        <v>280518</v>
-      </c>
-      <c r="N44" s="32">
-        <v>330115</v>
-      </c>
-      <c r="O44" s="32">
-        <v>78565</v>
-      </c>
-      <c r="P44" s="32">
-        <v>328549</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>72678</v>
-      </c>
-      <c r="R44" s="32">
-        <v>205948</v>
-      </c>
-      <c r="S44" s="32">
-        <v>104334</v>
-      </c>
-      <c r="T44" s="32">
-        <v>132981</v>
-      </c>
-      <c r="U44" s="32">
-        <v>126277</v>
-      </c>
-      <c r="V44" s="32">
-        <v>92721</v>
-      </c>
-      <c r="W44" s="32">
-        <v>278904</v>
-      </c>
-      <c r="X44" s="32">
-        <v>166096</v>
-      </c>
-      <c r="Y44" s="32">
-        <v>101219</v>
-      </c>
-      <c r="Z44" s="32">
-        <v>108129</v>
-      </c>
-      <c r="AA44" s="32">
-        <v>209680</v>
-      </c>
-      <c r="AB44" s="32">
-        <v>235756</v>
-      </c>
-      <c r="AC44" s="32">
-        <v>165254</v>
-      </c>
-      <c r="AD44" s="32">
-        <v>297799</v>
-      </c>
-      <c r="AE44" s="32">
-        <v>52842</v>
-      </c>
-      <c r="AF44" s="32">
-        <v>147335</v>
+      <c r="C44" s="39">
+        <f t="shared" ref="C44:D44" si="0">C28+C33+C38+C43</f>
+        <v>220739</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" si="0"/>
+        <v>114902</v>
+      </c>
+      <c r="E44" s="39">
+        <f t="shared" ref="E44" si="1">E28+E33+E38+E43</f>
+        <v>233252</v>
+      </c>
+      <c r="F44" s="39">
+        <f t="shared" ref="F44" si="2">F28+F33+F38+F43</f>
+        <v>211978</v>
+      </c>
+      <c r="G44" s="39">
+        <f t="shared" ref="G44" si="3">G28+G33+G38+G43</f>
+        <v>252974</v>
+      </c>
+      <c r="H44" s="39">
+        <f t="shared" ref="H44" si="4">H28+H33+H38+H43</f>
+        <v>207080</v>
+      </c>
+      <c r="I44" s="39">
+        <f t="shared" ref="I44" si="5">I28+I33+I38+I43</f>
+        <v>147887</v>
+      </c>
+      <c r="J44" s="39">
+        <f t="shared" ref="J44" si="6">J28+J33+J38+J43</f>
+        <v>144610</v>
+      </c>
+      <c r="K44" s="39">
+        <f t="shared" ref="K44" si="7">K28+K33+K38+K43</f>
+        <v>235363</v>
+      </c>
+      <c r="L44" s="39">
+        <f t="shared" ref="L44" si="8">L28+L33+L38+L43</f>
+        <v>102374</v>
+      </c>
+      <c r="M44" s="39">
+        <f t="shared" ref="M44" si="9">M28+M33+M38+M43</f>
+        <v>247918</v>
+      </c>
+      <c r="N44" s="39">
+        <f t="shared" ref="N44" si="10">N28+N33+N38+N43</f>
+        <v>304112</v>
+      </c>
+      <c r="O44" s="39">
+        <f t="shared" ref="O44" si="11">O28+O33+O38+O43</f>
+        <v>210806</v>
+      </c>
+      <c r="P44" s="39">
+        <f t="shared" ref="P44:AF44" si="12">P28+P33+P38+P43</f>
+        <v>202270</v>
+      </c>
+      <c r="Q44" s="39">
+        <f t="shared" si="12"/>
+        <v>278023</v>
+      </c>
+      <c r="R44" s="39">
+        <f t="shared" si="12"/>
+        <v>176917</v>
+      </c>
+      <c r="S44" s="39">
+        <f t="shared" si="12"/>
+        <v>235127</v>
+      </c>
+      <c r="T44" s="39">
+        <f t="shared" si="12"/>
+        <v>90653</v>
+      </c>
+      <c r="U44" s="39">
+        <f t="shared" si="12"/>
+        <v>199752</v>
+      </c>
+      <c r="V44" s="39">
+        <f t="shared" si="12"/>
+        <v>168864</v>
+      </c>
+      <c r="W44" s="39">
+        <f t="shared" si="12"/>
+        <v>247062</v>
+      </c>
+      <c r="X44" s="39">
+        <f t="shared" si="12"/>
+        <v>133537</v>
+      </c>
+      <c r="Y44" s="39">
+        <f t="shared" si="12"/>
+        <v>214197</v>
+      </c>
+      <c r="Z44" s="39">
+        <f t="shared" si="12"/>
+        <v>121435</v>
+      </c>
+      <c r="AA44" s="39">
+        <f t="shared" si="12"/>
+        <v>159213</v>
+      </c>
+      <c r="AB44" s="39">
+        <f t="shared" si="12"/>
+        <v>129253</v>
+      </c>
+      <c r="AC44" s="39">
+        <f t="shared" si="12"/>
+        <v>180385</v>
+      </c>
+      <c r="AD44" s="39">
+        <f t="shared" si="12"/>
+        <v>154921</v>
+      </c>
+      <c r="AE44" s="39">
+        <f t="shared" si="12"/>
+        <v>178041</v>
+      </c>
+      <c r="AF44" s="39">
+        <f t="shared" si="12"/>
+        <v>196850</v>
       </c>
       <c r="AG44" s="39">
+        <f>AG28+AG33+AG38+AG43</f>
         <v>206669</v>
       </c>
       <c r="AH44" s="39">
+        <f t="shared" ref="AH44:AM44" si="13">AH28+AH33+AH38+AH43</f>
         <v>187574</v>
       </c>
-      <c r="AI44" s="32">
-        <v>75399</v>
-      </c>
-      <c r="AJ44" s="32">
-        <v>239501</v>
-      </c>
-      <c r="AK44" s="32">
-        <v>72377</v>
-      </c>
-      <c r="AL44" s="32">
-        <v>127546</v>
-      </c>
-      <c r="AM44" s="32">
-        <v>121603</v>
+      <c r="AI44" s="39">
+        <f t="shared" si="13"/>
+        <v>208448</v>
+      </c>
+      <c r="AJ44" s="39">
+        <f t="shared" si="13"/>
+        <v>275252</v>
+      </c>
+      <c r="AK44" s="39">
+        <f t="shared" si="13"/>
+        <v>316944</v>
+      </c>
+      <c r="AL44" s="39">
+        <f t="shared" si="13"/>
+        <v>160793</v>
+      </c>
+      <c r="AM44" s="39">
+        <f t="shared" si="13"/>
+        <v>208129</v>
       </c>
     </row>
-    <row r="45" spans="2:39">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B45" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="32">
-        <v>42</v>
-      </c>
-      <c r="D45" s="32">
-        <v>279</v>
-      </c>
-      <c r="E45" s="32">
-        <v>125</v>
-      </c>
-      <c r="F45" s="32">
-        <v>119</v>
-      </c>
-      <c r="G45" s="32">
-        <v>120</v>
-      </c>
-      <c r="H45" s="32">
-        <v>273</v>
-      </c>
-      <c r="I45" s="32">
-        <v>45</v>
-      </c>
-      <c r="J45" s="32">
-        <v>247</v>
-      </c>
-      <c r="K45" s="32">
-        <v>56</v>
-      </c>
-      <c r="L45" s="32">
-        <v>181</v>
-      </c>
-      <c r="M45" s="32">
-        <v>158</v>
-      </c>
-      <c r="N45" s="32">
-        <v>167</v>
-      </c>
-      <c r="O45" s="32">
-        <v>105</v>
-      </c>
-      <c r="P45" s="32">
-        <v>203</v>
-      </c>
-      <c r="Q45" s="32">
-        <v>253</v>
-      </c>
-      <c r="R45" s="32">
-        <v>280</v>
-      </c>
-      <c r="S45" s="32">
-        <v>62</v>
-      </c>
-      <c r="T45" s="32">
-        <v>148</v>
-      </c>
-      <c r="U45" s="32">
-        <v>293</v>
-      </c>
-      <c r="V45" s="32">
-        <v>256</v>
-      </c>
-      <c r="W45" s="32">
-        <v>50</v>
-      </c>
-      <c r="X45" s="32">
-        <v>256</v>
-      </c>
-      <c r="Y45" s="32">
-        <v>92</v>
-      </c>
-      <c r="Z45" s="32">
-        <v>238</v>
-      </c>
-      <c r="AA45" s="32">
-        <v>90</v>
-      </c>
-      <c r="AB45" s="32">
-        <v>120</v>
-      </c>
-      <c r="AC45" s="32">
-        <v>193</v>
-      </c>
-      <c r="AD45" s="32">
-        <v>141</v>
-      </c>
-      <c r="AE45" s="32">
-        <v>89</v>
-      </c>
-      <c r="AF45" s="32">
-        <v>285</v>
+      <c r="C45" s="40">
+        <f t="shared" ref="C45:AF45" si="14">C44/(4*290000)*1000</f>
+        <v>190.29224137931033</v>
+      </c>
+      <c r="D45" s="40">
+        <f t="shared" si="14"/>
+        <v>99.053448275862067</v>
+      </c>
+      <c r="E45" s="40">
+        <f t="shared" si="14"/>
+        <v>201.0793103448276</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="14"/>
+        <v>182.73965517241382</v>
+      </c>
+      <c r="G45" s="40">
+        <f t="shared" si="14"/>
+        <v>218.08103448275861</v>
+      </c>
+      <c r="H45" s="40">
+        <f t="shared" si="14"/>
+        <v>178.51724137931035</v>
+      </c>
+      <c r="I45" s="40">
+        <f t="shared" si="14"/>
+        <v>127.48879310344827</v>
+      </c>
+      <c r="J45" s="40">
+        <f t="shared" si="14"/>
+        <v>124.66379310344827</v>
+      </c>
+      <c r="K45" s="40">
+        <f t="shared" si="14"/>
+        <v>202.89913793103449</v>
+      </c>
+      <c r="L45" s="40">
+        <f t="shared" si="14"/>
+        <v>88.25344827586207</v>
+      </c>
+      <c r="M45" s="40">
+        <f t="shared" si="14"/>
+        <v>213.72241379310344</v>
+      </c>
+      <c r="N45" s="40">
+        <f t="shared" si="14"/>
+        <v>262.16551724137935</v>
+      </c>
+      <c r="O45" s="40">
+        <f t="shared" si="14"/>
+        <v>181.72931034482758</v>
+      </c>
+      <c r="P45" s="40">
+        <f t="shared" si="14"/>
+        <v>174.37068965517241</v>
+      </c>
+      <c r="Q45" s="40">
+        <f t="shared" si="14"/>
+        <v>239.67500000000001</v>
+      </c>
+      <c r="R45" s="40">
+        <f t="shared" si="14"/>
+        <v>152.5146551724138</v>
+      </c>
+      <c r="S45" s="40">
+        <f t="shared" si="14"/>
+        <v>202.6956896551724</v>
+      </c>
+      <c r="T45" s="40">
+        <f t="shared" si="14"/>
+        <v>78.149137931034474</v>
+      </c>
+      <c r="U45" s="40">
+        <f t="shared" si="14"/>
+        <v>172.2</v>
+      </c>
+      <c r="V45" s="40">
+        <f t="shared" si="14"/>
+        <v>145.57241379310346</v>
+      </c>
+      <c r="W45" s="40">
+        <f t="shared" si="14"/>
+        <v>212.98448275862069</v>
+      </c>
+      <c r="X45" s="40">
+        <f t="shared" si="14"/>
+        <v>115.11810344827586</v>
+      </c>
+      <c r="Y45" s="40">
+        <f t="shared" si="14"/>
+        <v>184.65258620689656</v>
+      </c>
+      <c r="Z45" s="40">
+        <f t="shared" si="14"/>
+        <v>104.68534482758621</v>
+      </c>
+      <c r="AA45" s="40">
+        <f t="shared" si="14"/>
+        <v>137.25258620689655</v>
+      </c>
+      <c r="AB45" s="40">
+        <f t="shared" si="14"/>
+        <v>111.425</v>
+      </c>
+      <c r="AC45" s="40">
+        <f t="shared" si="14"/>
+        <v>155.50431034482759</v>
+      </c>
+      <c r="AD45" s="40">
+        <f t="shared" si="14"/>
+        <v>133.55258620689656</v>
+      </c>
+      <c r="AE45" s="40">
+        <f t="shared" si="14"/>
+        <v>153.48362068965517</v>
+      </c>
+      <c r="AF45" s="40">
+        <f t="shared" si="14"/>
+        <v>169.69827586206895</v>
       </c>
       <c r="AG45" s="40">
-        <v>178.16</v>
+        <f>AG44/(4*290000)*1000</f>
+        <v>178.16293103448274</v>
       </c>
       <c r="AH45" s="40">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="AI45" s="32">
-        <v>302</v>
-      </c>
-      <c r="AJ45" s="32">
-        <v>47</v>
-      </c>
-      <c r="AK45" s="32">
-        <v>46</v>
-      </c>
-      <c r="AL45" s="32">
-        <v>110</v>
-      </c>
-      <c r="AM45" s="32">
-        <v>240</v>
+        <f t="shared" ref="AH45:AM45" si="15">AH44/(4*290000)*1000</f>
+        <v>161.70172413793105</v>
+      </c>
+      <c r="AI45" s="40">
+        <f t="shared" si="15"/>
+        <v>179.69655172413792</v>
+      </c>
+      <c r="AJ45" s="40">
+        <f t="shared" si="15"/>
+        <v>237.28620689655173</v>
+      </c>
+      <c r="AK45" s="40">
+        <f t="shared" si="15"/>
+        <v>273.2275862068966</v>
+      </c>
+      <c r="AL45" s="40">
+        <f t="shared" si="15"/>
+        <v>138.61465517241379</v>
+      </c>
+      <c r="AM45" s="40">
+        <f t="shared" si="15"/>
+        <v>179.42155172413794</v>
       </c>
     </row>
-    <row r="46" spans="2:39">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="41" t="s">
         <v>56</v>
       </c>
@@ -16244,7 +16278,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="47" spans="2:39">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" s="43" t="s">
         <v>46</v>
       </c>
@@ -16286,7 +16320,7 @@
       <c r="AL47" s="33"/>
       <c r="AM47" s="33"/>
     </row>
-    <row r="48" spans="2:39">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" s="38" t="s">
         <v>57</v>
       </c>
@@ -16402,7 +16436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:39" ht="29">
+    <row r="49" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B49" s="38" t="s">
         <v>58</v>
       </c>
@@ -16518,7 +16552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:39">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" s="38" t="s">
         <v>59</v>
       </c>
@@ -16634,7 +16668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:39" ht="29">
+    <row r="51" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B51" s="38" t="s">
         <v>60</v>
       </c>
@@ -16750,7 +16784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:39">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="43" t="s">
         <v>51</v>
       </c>
@@ -16862,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:39" ht="29">
+    <row r="53" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B53" s="38" t="s">
         <v>61</v>
       </c>
@@ -16978,7 +17012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:39" ht="29">
+    <row r="54" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B54" s="38" t="s">
         <v>62</v>
       </c>
@@ -17094,7 +17128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:39">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
         <v>59</v>
       </c>
@@ -17210,7 +17244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:39" ht="29">
+    <row r="56" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B56" s="38" t="s">
         <v>60</v>
       </c>
@@ -17326,7 +17360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:39">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="43" t="s">
         <v>52</v>
       </c>
@@ -17438,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:39">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="38" t="s">
         <v>57</v>
       </c>
@@ -17554,7 +17588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="2:39" ht="29">
+    <row r="59" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B59" s="38" t="s">
         <v>58</v>
       </c>
@@ -17670,7 +17704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="2:39">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" s="38" t="s">
         <v>59</v>
       </c>
@@ -17786,7 +17820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:39" ht="29">
+    <row r="61" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B61" s="38" t="s">
         <v>60</v>
       </c>
@@ -17902,7 +17936,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="2:39">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" s="43" t="s">
         <v>53</v>
       </c>
@@ -18014,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:39">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
         <v>57</v>
       </c>
@@ -18130,7 +18164,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="2:39" ht="29">
+    <row r="64" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B64" s="38" t="s">
         <v>58</v>
       </c>
@@ -18246,7 +18280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="2:39">
+    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B65" s="38" t="s">
         <v>59</v>
       </c>
@@ -18362,7 +18396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:39" ht="29">
+    <row r="66" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B66" s="38" t="s">
         <v>60</v>
       </c>
@@ -18478,7 +18512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="2:39">
+    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B67" s="35"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -18518,7 +18552,7 @@
       <c r="AL67" s="28"/>
       <c r="AM67" s="28"/>
     </row>
-    <row r="68" spans="2:39">
+    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B68" s="29" t="s">
         <v>63</v>
       </c>
@@ -18634,7 +18668,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="69" spans="2:39" ht="29">
+    <row r="69" spans="2:39" ht="29" x14ac:dyDescent="0.2">
       <c r="B69" s="38" t="s">
         <v>64</v>
       </c>
@@ -18750,7 +18784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:39">
+    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B70" s="38" t="s">
         <v>65</v>
       </c>
@@ -18875,16 +18909,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48025AB1-D164-E341-928F-1201E5D2EFCB}">
   <dimension ref="B2:BE17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:57" ht="33" customHeight="1">
+    <row r="2" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
         <v>66</v>
       </c>
@@ -19038,7 +19072,7 @@
       <c r="BD2" s="48"/>
       <c r="BE2" s="48"/>
     </row>
-    <row r="3" spans="2:57" ht="33" customHeight="1">
+    <row r="3" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>67</v>
       </c>
@@ -19192,7 +19226,7 @@
       <c r="BD3" s="48"/>
       <c r="BE3" s="48"/>
     </row>
-    <row r="4" spans="2:57" ht="33" customHeight="1">
+    <row r="4" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>68</v>
       </c>
@@ -19346,7 +19380,7 @@
       <c r="BD4" s="48"/>
       <c r="BE4" s="48"/>
     </row>
-    <row r="5" spans="2:57" ht="33" customHeight="1">
+    <row r="5" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
         <v>69</v>
       </c>
@@ -19496,7 +19530,7 @@
       <c r="BD5" s="48"/>
       <c r="BE5" s="48"/>
     </row>
-    <row r="6" spans="2:57" ht="33" customHeight="1">
+    <row r="6" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>70</v>
       </c>
@@ -19650,7 +19684,7 @@
       <c r="BD6" s="48"/>
       <c r="BE6" s="48"/>
     </row>
-    <row r="7" spans="2:57" ht="33" customHeight="1">
+    <row r="7" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -19708,7 +19742,7 @@
       <c r="BD7" s="48"/>
       <c r="BE7" s="48"/>
     </row>
-    <row r="8" spans="2:57" ht="33" customHeight="1">
+    <row r="8" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="53" t="s">
         <v>71</v>
       </c>
@@ -19862,7 +19896,7 @@
       <c r="BD8" s="48"/>
       <c r="BE8" s="48"/>
     </row>
-    <row r="9" spans="2:57" ht="33" customHeight="1">
+    <row r="9" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49" t="s">
         <v>72</v>
       </c>
@@ -20016,7 +20050,7 @@
       <c r="BD9" s="48"/>
       <c r="BE9" s="48"/>
     </row>
-    <row r="10" spans="2:57" ht="33" customHeight="1">
+    <row r="10" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>73</v>
       </c>
@@ -20170,7 +20204,7 @@
       <c r="BD10" s="48"/>
       <c r="BE10" s="48"/>
     </row>
-    <row r="11" spans="2:57" ht="33" customHeight="1">
+    <row r="11" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
         <v>74</v>
       </c>
@@ -20324,7 +20358,7 @@
       <c r="BD11" s="48"/>
       <c r="BE11" s="48"/>
     </row>
-    <row r="12" spans="2:57" ht="33" customHeight="1">
+    <row r="12" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
         <v>75</v>
       </c>
@@ -20478,7 +20512,7 @@
       <c r="BD12" s="48"/>
       <c r="BE12" s="48"/>
     </row>
-    <row r="13" spans="2:57" ht="33" customHeight="1">
+    <row r="13" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
         <v>76</v>
       </c>
@@ -20632,7 +20666,7 @@
       <c r="BD13" s="48"/>
       <c r="BE13" s="48"/>
     </row>
-    <row r="14" spans="2:57" ht="33" customHeight="1">
+    <row r="14" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
         <v>77</v>
       </c>
@@ -20786,7 +20820,7 @@
       <c r="BD14" s="48"/>
       <c r="BE14" s="48"/>
     </row>
-    <row r="15" spans="2:57" ht="33" customHeight="1">
+    <row r="15" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="49" t="s">
         <v>78</v>
       </c>
@@ -20940,7 +20974,7 @@
       <c r="BD15" s="48"/>
       <c r="BE15" s="48"/>
     </row>
-    <row r="16" spans="2:57" ht="33" customHeight="1">
+    <row r="16" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="49" t="s">
         <v>79</v>
       </c>
@@ -21094,7 +21128,7 @@
       <c r="BD16" s="48"/>
       <c r="BE16" s="48"/>
     </row>
-    <row r="17" spans="2:57" ht="33" customHeight="1">
+    <row r="17" spans="2:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="49" t="s">
         <v>80</v>
       </c>
